--- a/best-found-solution.xlsx
+++ b/best-found-solution.xlsx
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E36" t="n">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>13</v>
+      </c>
+      <c r="D41" t="n">
         <v>16</v>
-      </c>
-      <c r="D41" t="n">
-        <v>19</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E57" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D67" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E67" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E69" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E77" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="C83" t="n">
+        <v>7</v>
+      </c>
+      <c r="D83" t="n">
         <v>15</v>
       </c>
-      <c r="D83" t="n">
-        <v>23</v>
-      </c>
       <c r="E83" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D101" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>

--- a/best-found-solution.xlsx
+++ b/best-found-solution.xlsx
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -806,10 +806,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1031,14 +1031,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D77" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
